--- a/Code/Results/Cases/Case_8_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8757011949296043</v>
+        <v>0.8552279185049088</v>
       </c>
       <c r="C2">
-        <v>0.3767351584411358</v>
+        <v>0.4750062612544923</v>
       </c>
       <c r="D2">
-        <v>0.09228732548164942</v>
+        <v>0.05298652398221115</v>
       </c>
       <c r="E2">
-        <v>1.243610944834828</v>
+        <v>1.261708267484437</v>
       </c>
       <c r="F2">
-        <v>2.600552137827208</v>
+        <v>1.76799230205232</v>
       </c>
       <c r="G2">
-        <v>0.0008263939930710383</v>
+        <v>0.01708886263321086</v>
       </c>
       <c r="H2">
-        <v>0.0009762231807703969</v>
+        <v>0.002225206689481229</v>
       </c>
       <c r="I2">
-        <v>0.005551650477905401</v>
+        <v>0.001770776743253322</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.707510874207941</v>
+        <v>1.043280713692994</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4422904880821648</v>
       </c>
       <c r="M2">
-        <v>1.250703632491678</v>
+        <v>0.3446270589127778</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.329228274872548</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7604392845711914</v>
+        <v>0.7459691504722912</v>
       </c>
       <c r="C3">
-        <v>0.3258704027540205</v>
+        <v>0.4098056746391308</v>
       </c>
       <c r="D3">
-        <v>0.0880578992841059</v>
+        <v>0.05127150527001056</v>
       </c>
       <c r="E3">
-        <v>1.076746093974791</v>
+        <v>1.094738781018663</v>
       </c>
       <c r="F3">
-        <v>2.35150256289721</v>
+        <v>1.618439381914527</v>
       </c>
       <c r="G3">
-        <v>0.0008313619840357504</v>
+        <v>0.02282795580855623</v>
       </c>
       <c r="H3">
-        <v>0.0001510148470669215</v>
+        <v>0.0009286687500655866</v>
       </c>
       <c r="I3">
-        <v>0.00883157541746904</v>
+        <v>0.003015793051742044</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.562675214931247</v>
+        <v>0.9759480256218183</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.427857764345589</v>
       </c>
       <c r="M3">
-        <v>1.084860195141431</v>
+        <v>0.3097420268691735</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.154839434399747</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6898115297017</v>
+        <v>0.6787497136544687</v>
       </c>
       <c r="C4">
-        <v>0.2952019791881355</v>
+        <v>0.3702633945423202</v>
       </c>
       <c r="D4">
-        <v>0.08533384876793448</v>
+        <v>0.05014067589547988</v>
       </c>
       <c r="E4">
-        <v>0.9750497461206464</v>
+        <v>0.9926342384113696</v>
       </c>
       <c r="F4">
-        <v>2.198359926904288</v>
+        <v>1.525774247428075</v>
       </c>
       <c r="G4">
-        <v>0.0008345032288129862</v>
+        <v>0.02688343987198727</v>
       </c>
       <c r="H4">
-        <v>8.080268099064369E-08</v>
+        <v>0.0003950844538693765</v>
       </c>
       <c r="I4">
-        <v>0.01135255146535741</v>
+        <v>0.004068132682494507</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.47308111802711</v>
+        <v>0.9337144765817058</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4183043492943597</v>
       </c>
       <c r="M4">
-        <v>0.9837163600922452</v>
+        <v>0.2888847435812849</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.04806229591091</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6608397581252348</v>
+        <v>0.6511395203167751</v>
       </c>
       <c r="C5">
-        <v>0.2832816340548447</v>
+        <v>0.3546747332242717</v>
       </c>
       <c r="D5">
-        <v>0.08399267480674411</v>
+        <v>0.04959459662793719</v>
       </c>
       <c r="E5">
-        <v>0.9337529603286043</v>
+        <v>0.9510940972210591</v>
       </c>
       <c r="F5">
-        <v>2.131516312109625</v>
+        <v>1.48484214311118</v>
       </c>
       <c r="G5">
-        <v>0.0008358181333146808</v>
+        <v>0.02867767118805364</v>
       </c>
       <c r="H5">
-        <v>2.231856529055776E-05</v>
+        <v>0.0002388366989389823</v>
       </c>
       <c r="I5">
-        <v>0.01259303522564892</v>
+        <v>0.004659069024645746</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.432885975723437</v>
+        <v>0.9140734871864922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4133268191948645</v>
       </c>
       <c r="M5">
-        <v>0.9429114070566129</v>
+        <v>0.2797834559678449</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.004829120565034</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6557682583274413</v>
+        <v>0.6463344352200124</v>
       </c>
       <c r="C6">
-        <v>0.2818619443235661</v>
+        <v>0.3525995051380733</v>
       </c>
       <c r="D6">
-        <v>0.0835257451054261</v>
+        <v>0.04942340461657402</v>
       </c>
       <c r="E6">
-        <v>0.9268849564082018</v>
+        <v>0.9441825304315046</v>
       </c>
       <c r="F6">
-        <v>2.115099259512775</v>
+        <v>1.474434092109888</v>
       </c>
       <c r="G6">
-        <v>0.0008360518202587514</v>
+        <v>0.02900088188019168</v>
       </c>
       <c r="H6">
-        <v>3.12341988060183E-05</v>
+        <v>0.0002159639157945925</v>
       </c>
       <c r="I6">
-        <v>0.01292692467470147</v>
+        <v>0.004884482855144867</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.421922976158257</v>
+        <v>0.9081103571646167</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4113803240517768</v>
       </c>
       <c r="M6">
-        <v>0.9364700194222166</v>
+        <v>0.2773761552805709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9979237160146681</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6887001125746224</v>
+        <v>0.6789120418031018</v>
       </c>
       <c r="C7">
-        <v>0.2965522552200071</v>
+        <v>0.3681449912181449</v>
       </c>
       <c r="D7">
-        <v>0.08465163260927966</v>
+        <v>0.04955690475658159</v>
       </c>
       <c r="E7">
-        <v>0.9744349233201461</v>
+        <v>0.9919119808528478</v>
       </c>
       <c r="F7">
-        <v>2.182914745170308</v>
+        <v>1.497756535497771</v>
       </c>
       <c r="G7">
-        <v>0.0008345585123935772</v>
+        <v>0.02744864237185674</v>
       </c>
       <c r="H7">
-        <v>2.065128201778066E-08</v>
+        <v>0.0003864266586202092</v>
       </c>
       <c r="I7">
-        <v>0.01167877245753335</v>
+        <v>0.004419354509539453</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.460824860290742</v>
+        <v>0.9149542496491634</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4106974001116726</v>
       </c>
       <c r="M7">
-        <v>0.9840545134039473</v>
+        <v>0.2824442596016539</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.046192083968663</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8349429300297402</v>
+        <v>0.820568397982214</v>
       </c>
       <c r="C8">
-        <v>0.3610856888282399</v>
+        <v>0.4431700403954153</v>
       </c>
       <c r="D8">
-        <v>0.08997099897474925</v>
+        <v>0.05106906413182433</v>
       </c>
       <c r="E8">
-        <v>1.185806772583462</v>
+        <v>1.203551922712833</v>
       </c>
       <c r="F8">
-        <v>2.495325033531429</v>
+        <v>1.645436843464154</v>
       </c>
       <c r="G8">
-        <v>0.0008281366471700746</v>
+        <v>0.02122014499770408</v>
       </c>
       <c r="H8">
-        <v>0.0006095123547509296</v>
+        <v>0.001687076493414263</v>
       </c>
       <c r="I8">
-        <v>0.006932127005096156</v>
+        <v>0.002572271794148762</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.642087961651086</v>
+        <v>0.9740285194290905</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4193442685755429</v>
       </c>
       <c r="M8">
-        <v>1.194529215284177</v>
+        <v>0.3159529107074732</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.263141631149892</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.124822452086079</v>
+        <v>1.094548275426575</v>
       </c>
       <c r="C9">
-        <v>0.4900947656637982</v>
+        <v>0.6040933685842731</v>
       </c>
       <c r="D9">
-        <v>0.1005949292718995</v>
+        <v>0.05497110263487537</v>
       </c>
       <c r="E9">
-        <v>1.607902555214878</v>
+        <v>1.623360447649404</v>
       </c>
       <c r="F9">
-        <v>3.134130940509891</v>
+        <v>2.009885891160138</v>
       </c>
       <c r="G9">
-        <v>0.0008161730671379353</v>
+        <v>0.01019852495453577</v>
       </c>
       <c r="H9">
-        <v>0.004922690999586088</v>
+        <v>0.006543282758320834</v>
       </c>
       <c r="I9">
-        <v>0.001549632868536044</v>
+        <v>0.0008349749789964278</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.014234080670604</v>
+        <v>1.135962862035171</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4522523279751809</v>
       </c>
       <c r="M9">
-        <v>1.612429435160408</v>
+        <v>0.4045413981542652</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.697704909885175</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.341463779682414</v>
+        <v>1.305372305260391</v>
       </c>
       <c r="C10">
-        <v>0.5829054608892932</v>
+        <v>0.6966614502629227</v>
       </c>
       <c r="D10">
-        <v>0.104117872296051</v>
+        <v>0.05572462997050565</v>
       </c>
       <c r="E10">
-        <v>1.825798165199856</v>
+        <v>1.835997193849309</v>
       </c>
       <c r="F10">
-        <v>3.520580678182341</v>
+        <v>2.123396267073886</v>
       </c>
       <c r="G10">
-        <v>0.0008080944010899059</v>
+        <v>0.01316661957176102</v>
       </c>
       <c r="H10">
-        <v>0.0099930919056197</v>
+        <v>0.01126899354430799</v>
       </c>
       <c r="I10">
-        <v>0.0009046433165051937</v>
+        <v>0.001397869785247252</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.224901565393139</v>
+        <v>1.157017661207419</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4396610950681676</v>
       </c>
       <c r="M10">
-        <v>1.920560313248984</v>
+        <v>0.4355576145886459</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.001293035761307</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.457703815428658</v>
+        <v>1.440341668469387</v>
       </c>
       <c r="C11">
-        <v>0.5685543298570792</v>
+        <v>0.6272203221589905</v>
       </c>
       <c r="D11">
-        <v>0.08152463968172796</v>
+        <v>0.05948091915992038</v>
       </c>
       <c r="E11">
-        <v>1.163766193563518</v>
+        <v>1.16991387160968</v>
       </c>
       <c r="F11">
-        <v>3.024915391856439</v>
+        <v>1.632539318521921</v>
       </c>
       <c r="G11">
-        <v>0.0008070308558623042</v>
+        <v>0.04736140656582677</v>
       </c>
       <c r="H11">
-        <v>0.02670127274879874</v>
+        <v>0.02761965496237195</v>
       </c>
       <c r="I11">
-        <v>0.001487556433692916</v>
+        <v>0.002101217060354266</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.847765708813199</v>
+        <v>0.8409268726683337</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3201239884731351</v>
       </c>
       <c r="M11">
-        <v>2.016608938470711</v>
+        <v>0.3193777905859108</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.063877956399949</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.512544325363791</v>
+        <v>1.508504314943139</v>
       </c>
       <c r="C12">
-        <v>0.5351922241750628</v>
+        <v>0.5628697485465466</v>
       </c>
       <c r="D12">
-        <v>0.0701319639247151</v>
+        <v>0.0708756765290488</v>
       </c>
       <c r="E12">
-        <v>0.6889217659704769</v>
+        <v>0.6934920151892356</v>
       </c>
       <c r="F12">
-        <v>2.58314231195412</v>
+        <v>1.307418875096118</v>
       </c>
       <c r="G12">
-        <v>0.0008074786623594891</v>
+        <v>0.07228346433679178</v>
       </c>
       <c r="H12">
-        <v>0.06367589223715697</v>
+        <v>0.06451218605462117</v>
       </c>
       <c r="I12">
-        <v>0.001463114883209826</v>
+        <v>0.002045719568284809</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.535754041106543</v>
+        <v>0.6488431817408937</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2512729009911396</v>
       </c>
       <c r="M12">
-        <v>2.03091437061164</v>
+        <v>0.2446551071698408</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.059072792854721</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.521620517720066</v>
+        <v>1.523554954574706</v>
       </c>
       <c r="C13">
-        <v>0.4880481742227971</v>
+        <v>0.5064336447927076</v>
       </c>
       <c r="D13">
-        <v>0.06545636851609338</v>
+        <v>0.08238103545282627</v>
       </c>
       <c r="E13">
-        <v>0.3317583861104083</v>
+        <v>0.3354769479024426</v>
       </c>
       <c r="F13">
-        <v>2.136146655839042</v>
+        <v>1.084668398549169</v>
       </c>
       <c r="G13">
-        <v>0.0008091599407222263</v>
+        <v>0.06715660150347702</v>
       </c>
       <c r="H13">
-        <v>0.117741820113153</v>
+        <v>0.1186388468631208</v>
       </c>
       <c r="I13">
-        <v>0.001385848053156558</v>
+        <v>0.001858969959947387</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.238292400125218</v>
+        <v>0.52847890842731</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.210473668541276</v>
       </c>
       <c r="M13">
-        <v>1.984560358923403</v>
+        <v>0.1948943613366296</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.008631260276871</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.507125944370699</v>
+        <v>1.509803603739584</v>
       </c>
       <c r="C14">
-        <v>0.4498082215129671</v>
+        <v>0.4699112908719485</v>
       </c>
       <c r="D14">
-        <v>0.06605803755466511</v>
+        <v>0.08927036663826016</v>
       </c>
       <c r="E14">
-        <v>0.1535464452666488</v>
+        <v>0.1565297154336136</v>
       </c>
       <c r="F14">
-        <v>1.824770195610981</v>
+        <v>0.9640967168044909</v>
       </c>
       <c r="G14">
-        <v>0.0008108653893573344</v>
+        <v>0.05111941194440561</v>
       </c>
       <c r="H14">
-        <v>0.1660205628236895</v>
+        <v>0.1669829551633057</v>
       </c>
       <c r="I14">
-        <v>0.001479277781970545</v>
+        <v>0.001793030922634387</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.039836847920093</v>
+        <v>0.4684946455670627</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1911534082063397</v>
       </c>
       <c r="M14">
-        <v>1.92542245393966</v>
+        <v>0.1686972082135192</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.952779174280238</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.493316675953963</v>
+        <v>1.494789561659275</v>
       </c>
       <c r="C15">
-        <v>0.4380808390986886</v>
+        <v>0.4618061463824006</v>
       </c>
       <c r="D15">
-        <v>0.06671748302555969</v>
+        <v>0.08978531173509197</v>
       </c>
       <c r="E15">
-        <v>0.1190794028427717</v>
+        <v>0.1218888778701164</v>
       </c>
       <c r="F15">
-        <v>1.740143164759232</v>
+        <v>0.9440082547231867</v>
       </c>
       <c r="G15">
-        <v>0.0008115914175592653</v>
+        <v>0.04292991062180107</v>
       </c>
       <c r="H15">
-        <v>0.1781786170799933</v>
+        <v>0.1791668568232296</v>
       </c>
       <c r="I15">
-        <v>0.001649301102773393</v>
+        <v>0.001893511463298303</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9880855549079186</v>
+        <v>0.4600783759313032</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.188924752702917</v>
       </c>
       <c r="M15">
-        <v>1.89857732469352</v>
+        <v>0.1643261554859414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.929334009652194</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.397056642220747</v>
+        <v>1.387454668554284</v>
       </c>
       <c r="C16">
-        <v>0.4101325581181072</v>
+        <v>0.4610153807709594</v>
       </c>
       <c r="D16">
-        <v>0.06615560004782139</v>
+        <v>0.07775563091575322</v>
       </c>
       <c r="E16">
-        <v>0.1155715042289245</v>
+        <v>0.1189131700136734</v>
       </c>
       <c r="F16">
-        <v>1.670863706567047</v>
+        <v>1.034483019700602</v>
       </c>
       <c r="G16">
-        <v>0.0008146580667555513</v>
+        <v>0.01569596524602268</v>
       </c>
       <c r="H16">
-        <v>0.1641918226693093</v>
+        <v>0.1652458574799596</v>
       </c>
       <c r="I16">
-        <v>0.002162413030744048</v>
+        <v>0.001913155791760879</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9614779610216075</v>
+        <v>0.5212410510074861</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2140992109373308</v>
       </c>
       <c r="M16">
-        <v>1.777188432010462</v>
+        <v>0.1835845077091989</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.829791812503458</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.331073482165294</v>
+        <v>1.315040212752962</v>
       </c>
       <c r="C17">
-        <v>0.4087892661500803</v>
+        <v>0.476342336487221</v>
       </c>
       <c r="D17">
-        <v>0.06471786228682852</v>
+        <v>0.06811034895186907</v>
       </c>
       <c r="E17">
-        <v>0.1934587455845218</v>
+        <v>0.1980717980425837</v>
       </c>
       <c r="F17">
-        <v>1.777242518391105</v>
+        <v>1.159938716585614</v>
       </c>
       <c r="G17">
-        <v>0.0008161410771026402</v>
+        <v>0.01025385099871201</v>
       </c>
       <c r="H17">
-        <v>0.1259440669288097</v>
+        <v>0.127016694539833</v>
       </c>
       <c r="I17">
-        <v>0.002547097768195172</v>
+        <v>0.001994497165014764</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.041649832126069</v>
+        <v>0.5986484240651251</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2443826182367133</v>
       </c>
       <c r="M17">
-        <v>1.715503259865898</v>
+        <v>0.2106141968898427</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.779860996940329</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.284499754618196</v>
+        <v>1.262244786536513</v>
       </c>
       <c r="C18">
-        <v>0.4294515406876656</v>
+        <v>0.5136941732552316</v>
       </c>
       <c r="D18">
-        <v>0.06584667103163522</v>
+        <v>0.05938939010663802</v>
       </c>
       <c r="E18">
-        <v>0.4120425253102979</v>
+        <v>0.4190701647663388</v>
       </c>
       <c r="F18">
-        <v>2.073864880810632</v>
+        <v>1.372407157460231</v>
       </c>
       <c r="G18">
-        <v>0.0008162541823013569</v>
+        <v>0.008776424264450799</v>
       </c>
       <c r="H18">
-        <v>0.07338426230846551</v>
+        <v>0.07454146103826531</v>
       </c>
       <c r="I18">
-        <v>0.002345016647586462</v>
+        <v>0.001728986166312119</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.245695796976506</v>
+        <v>0.7253267164164114</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2918725592016003</v>
       </c>
       <c r="M18">
-        <v>1.697018566931206</v>
+        <v>0.2577825038449006</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.770957521554152</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.256029486899536</v>
+        <v>1.22721480430576</v>
       </c>
       <c r="C19">
-        <v>0.4702715936033428</v>
+        <v>0.5730732246174739</v>
       </c>
       <c r="D19">
-        <v>0.07396785060768529</v>
+        <v>0.05456998735847662</v>
       </c>
       <c r="E19">
-        <v>0.8242753291734317</v>
+        <v>0.8343911873348731</v>
       </c>
       <c r="F19">
-        <v>2.510864270853332</v>
+        <v>1.65227070716962</v>
       </c>
       <c r="G19">
-        <v>0.0008150920829085944</v>
+        <v>0.007706288722703292</v>
       </c>
       <c r="H19">
-        <v>0.02940929893595268</v>
+        <v>0.03074463081676271</v>
       </c>
       <c r="I19">
-        <v>0.002198744043591105</v>
+        <v>0.001853833636662472</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.544580430716138</v>
+        <v>0.8914949663195486</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3528656435189106</v>
       </c>
       <c r="M19">
-        <v>1.716741858160304</v>
+        <v>0.3213900564856189</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.799436892182229</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.282041570456897</v>
+        <v>1.24394726296083</v>
       </c>
       <c r="C20">
-        <v>0.5627670355087275</v>
+        <v>0.6885198909982648</v>
       </c>
       <c r="D20">
-        <v>0.1010651017439663</v>
+        <v>0.05579258075381643</v>
       </c>
       <c r="E20">
-        <v>1.76380073055789</v>
+        <v>1.776190263390276</v>
       </c>
       <c r="F20">
-        <v>3.369797634834129</v>
+        <v>2.123791846803641</v>
       </c>
       <c r="G20">
-        <v>0.0008103100350985397</v>
+        <v>0.007188869786268981</v>
       </c>
       <c r="H20">
-        <v>0.008432862494704541</v>
+        <v>0.009924199389031774</v>
       </c>
       <c r="I20">
-        <v>0.001643349158811702</v>
+        <v>0.002075960855949965</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.13053152917773</v>
+        <v>1.166872973611788</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4483900751164427</v>
       </c>
       <c r="M20">
-        <v>1.841661222694</v>
+        <v>0.4333566765163894</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.931237236312285</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.446558825246825</v>
+        <v>1.424261298766936</v>
       </c>
       <c r="C21">
-        <v>0.6454403474346293</v>
+        <v>0.7098102026731397</v>
       </c>
       <c r="D21">
-        <v>0.1091245897381654</v>
+        <v>0.05556787578955635</v>
       </c>
       <c r="E21">
-        <v>2.086495868954287</v>
+        <v>2.090952378906053</v>
       </c>
       <c r="F21">
-        <v>3.797860193576355</v>
+        <v>1.975093662769737</v>
       </c>
       <c r="G21">
-        <v>0.0008037140125765291</v>
+        <v>0.06736834151865168</v>
       </c>
       <c r="H21">
-        <v>0.01382707699928798</v>
+        <v>0.01441210793614112</v>
       </c>
       <c r="I21">
-        <v>0.002113932257016948</v>
+        <v>0.002752640063820699</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.385062590383214</v>
+        <v>1.040335520191057</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3892477366737737</v>
       </c>
       <c r="M21">
-        <v>2.088323395640373</v>
+        <v>0.4004361553521179</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.133141653171123</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.556875849405031</v>
+        <v>1.547383888624779</v>
       </c>
       <c r="C22">
-        <v>0.6950576530102524</v>
+        <v>0.7133726837312793</v>
       </c>
       <c r="D22">
-        <v>0.1134941085054066</v>
+        <v>0.05808129205002999</v>
       </c>
       <c r="E22">
-        <v>2.249326738400129</v>
+        <v>2.247535515807698</v>
       </c>
       <c r="F22">
-        <v>4.058956330261196</v>
+        <v>1.852706852167444</v>
       </c>
       <c r="G22">
-        <v>0.0007995742463988709</v>
+        <v>0.1557578343817028</v>
       </c>
       <c r="H22">
-        <v>0.01773685778966949</v>
+        <v>0.01749054336171785</v>
       </c>
       <c r="I22">
-        <v>0.002898935114870937</v>
+        <v>0.00308545571836305</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.539274474796414</v>
+        <v>0.9463351166183855</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3484279050450638</v>
       </c>
       <c r="M22">
-        <v>2.247525659062461</v>
+        <v>0.3730576437429747</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.25787216770965</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.498875183774487</v>
+        <v>1.479049700746856</v>
       </c>
       <c r="C23">
-        <v>0.6666241852132657</v>
+        <v>0.7185088862874238</v>
       </c>
       <c r="D23">
-        <v>0.1119656247387368</v>
+        <v>0.05622697209630623</v>
       </c>
       <c r="E23">
-        <v>2.162371448173189</v>
+        <v>2.164291660353911</v>
       </c>
       <c r="F23">
-        <v>3.937064199360577</v>
+        <v>1.968313669592149</v>
       </c>
       <c r="G23">
-        <v>0.0008017395030540861</v>
+        <v>0.09016208260108272</v>
       </c>
       <c r="H23">
-        <v>0.01561431758753762</v>
+        <v>0.0158722688266546</v>
       </c>
       <c r="I23">
-        <v>0.002120866967200818</v>
+        <v>0.002557964679543723</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.471104835428122</v>
+        <v>1.02738099490648</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3807072928207518</v>
       </c>
       <c r="M23">
-        <v>2.161381925689625</v>
+        <v>0.4003050322262496</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.196162485894234</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.279176275039305</v>
+        <v>1.23998900670307</v>
       </c>
       <c r="C24">
-        <v>0.5641251342704265</v>
+        <v>0.6926627618455257</v>
       </c>
       <c r="D24">
-        <v>0.1047250720644399</v>
+        <v>0.05644477014395344</v>
       </c>
       <c r="E24">
-        <v>1.83680870759305</v>
+        <v>1.849366734788731</v>
       </c>
       <c r="F24">
-        <v>3.450965929586232</v>
+        <v>2.177447581191103</v>
       </c>
       <c r="G24">
-        <v>0.000810111715433822</v>
+        <v>0.006892560634812028</v>
       </c>
       <c r="H24">
-        <v>0.00869670975496134</v>
+        <v>0.01019738962392099</v>
       </c>
       <c r="I24">
-        <v>0.001141800789227432</v>
+        <v>0.001507313006010591</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.191345643973747</v>
+        <v>1.202518554039415</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4614963526353293</v>
       </c>
       <c r="M24">
-        <v>1.840313855000943</v>
+        <v>0.4469831853973574</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.931227923953628</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.044736568434388</v>
+        <v>1.017706251036685</v>
       </c>
       <c r="C25">
-        <v>0.4573140808880112</v>
+        <v>0.5674179793587371</v>
       </c>
       <c r="D25">
-        <v>0.09661934050188492</v>
+        <v>0.05409200037820794</v>
       </c>
       <c r="E25">
-        <v>1.49253966841826</v>
+        <v>1.509263629112169</v>
       </c>
       <c r="F25">
-        <v>2.934406174665753</v>
+        <v>1.919341993934736</v>
       </c>
       <c r="G25">
-        <v>0.0008194024600818464</v>
+        <v>0.01153050796241439</v>
       </c>
       <c r="H25">
-        <v>0.003365792351848418</v>
+        <v>0.004963286358567354</v>
       </c>
       <c r="I25">
-        <v>0.002954779957489606</v>
+        <v>0.001525522971329352</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.892451286213813</v>
+        <v>1.0955926768574</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4449524563354643</v>
       </c>
       <c r="M25">
-        <v>1.500034202166972</v>
+        <v>0.3810847116249718</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.584048100351936</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
